--- a/Assets/_Levels/_ToPlayTest/_Playtest-Spreadsheet.xlsx
+++ b/Assets/_Levels/_ToPlayTest/_Playtest-Spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erikverlage/Documents/GitHub/geogami/Assets/_Levels/_ToPlayTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6813FA61-D586-4845-A454-223DA36863F7}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6F21C3C6-D924-3945-8D69-A3816ECB38BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="460" windowWidth="27480" windowHeight="17040" xr2:uid="{9F75AD3C-B8A5-BE4E-B223-EC2DB7127EA1}"/>
   </bookViews>
@@ -265,12 +265,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -299,6 +293,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -621,7 +621,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -654,34 +654,34 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="20"/>
-      <c r="E2" s="19" t="s">
+      <c r="C2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="20"/>
-      <c r="G2" s="19" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="19" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="20"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="20"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="18"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -706,54 +706,54 @@
       <c r="H3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="O3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="17" t="s">
+      <c r="Q3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="18" t="s">
+      <c r="R3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="17" t="s">
+      <c r="S3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="22"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
       <c r="M4" s="11"/>
       <c r="N4" s="12"/>
       <c r="O4" s="11"/>
@@ -767,34 +767,34 @@
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="22">
-        <v>5</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="C5" s="21">
+        <v>1</v>
+      </c>
+      <c r="D5" s="20">
+        <v>5</v>
+      </c>
+      <c r="E5" s="21">
         <v>4</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>8</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="21">
         <v>3</v>
       </c>
-      <c r="H5" s="22">
-        <v>5</v>
-      </c>
-      <c r="I5" s="23">
+      <c r="H5" s="20">
+        <v>5</v>
+      </c>
+      <c r="I5" s="21">
         <v>6</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="20">
         <v>6</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="21">
         <v>7</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="20">
         <v>6</v>
       </c>
       <c r="M5" s="13"/>
@@ -810,184 +810,184 @@
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="26"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="24"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="24"/>
-      <c r="T7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="24"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="26"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="24"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="26"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="24"/>
     </row>
     <row r="10" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="26"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="24"/>
     </row>
     <row r="11" spans="1:20" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="25">
         <f t="shared" ref="C11:T11" si="0">AVERAGEIF(C4:C10,"&gt;0")</f>
         <v>1</v>
       </c>
-      <c r="D11" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E11" s="15">
+      <c r="D11" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E11" s="25">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="26">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="25">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H11" s="16">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="I11" s="15">
+      <c r="H11" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I11" s="25">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="25">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="26">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="M11" s="15" t="e">
+      <c r="M11" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N11" s="16" t="e">
+      <c r="N11" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O11" s="15" t="e">
+      <c r="O11" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P11" s="16" t="e">
+      <c r="P11" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q11" s="15" t="e">
+      <c r="Q11" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="16" t="e">
+      <c r="R11" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S11" s="15" t="e">
+      <c r="S11" s="25" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T11" s="16" t="e">
+      <c r="T11" s="26" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -1050,36 +1050,36 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21" t="s">
+      <c r="C2" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="19"/>
+      <c r="G2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21" t="s">
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21" t="s">
+      <c r="J2" s="19"/>
+      <c r="K2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="S2" s="19"/>
+      <c r="T2" s="19"/>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
